--- a/Adult Income/Performance_metrics/model_perf_metrics_merged_6331_9495__1_2 .xlsx
+++ b/Adult Income/Performance_metrics/model_perf_metrics_merged_6331_9495__1_2 .xlsx
@@ -502,10 +502,10 @@
         <v>31655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.668639053254438</v>
+        <v>0.6667702345813268</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7696336890683589</v>
+        <v>0.7686973929582172</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>37986</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3181176470588236</v>
+        <v>0.3144208037825059</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5921935961983853</v>
+        <v>0.5910527548284105</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>37986</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3162111215834119</v>
+        <v>0.3129734848484849</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5915220166377757</v>
+        <v>0.5905748971205168</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         <v>37986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3177218168980936</v>
+        <v>0.3134751773049645</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5920493792961644</v>
+        <v>0.5906653111229785</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>37986</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3174005180127149</v>
+        <v>0.3105413105413105</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5919546673444385</v>
+        <v>0.5898129035574454</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>37986</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3177966101694916</v>
+        <v>0.3133727810650888</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5920988842466595</v>
+        <v>0.5907191140227377</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>44317</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3046706586826347</v>
+        <v>0.2869649805447471</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5881575933768745</v>
+        <v>0.5823652000331271</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>44317</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3038156947444204</v>
+        <v>0.2860617854536609</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5879724674226868</v>
+        <v>0.5820272612781902</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>44317</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3046706586826347</v>
+        <v>0.2852969814995132</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5881575933768745</v>
+        <v>0.5817883324242433</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>44317</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3044833373291777</v>
+        <v>0.2836257309941521</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5881618913261386</v>
+        <v>0.5812114648153596</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>44317</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3048166786484544</v>
+        <v>0.2848794740686633</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5882566032778646</v>
+        <v>0.5816441155220223</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>41150</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3082778306374881</v>
+        <v>0.2946148273363922</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5890466120451099</v>
+        <v>0.5848039935230904</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>41150</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3076556165036966</v>
+        <v>0.2961176754280203</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5890100009424075</v>
+        <v>0.5852818512309841</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>41150</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3083511777301927</v>
+        <v>0.2965284474445516</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5890961169956049</v>
+        <v>0.585426068133205</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>41150</v>
       </c>
       <c r="G17" t="n">
-        <v>0.308095238095238</v>
+        <v>0.2965999517723655</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5890509099943742</v>
+        <v>0.5854755730837</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>41150</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3412192902638763</v>
+        <v>0.37144128113879</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5993012905270914</v>
+        <v>0.6108171529584455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>50645</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3013037180106229</v>
+        <v>0.2639543537583726</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5874665945106192</v>
+        <v>0.5751392335656986</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>50645</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3021235521235521</v>
+        <v>0.2617983109786389</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5877550283150611</v>
+        <v>0.574418149054594</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>50645</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3009661835748793</v>
+        <v>0.2643193652367964</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5873718825588934</v>
+        <v>0.5752339455174246</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1182,10 +1182,10 @@
         <v>50645</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2995402855068957</v>
+        <v>0.2582089552238806</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5869435298014947</v>
+        <v>0.5731654039358364</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>50645</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3011844331641286</v>
+        <v>0.2566658360328931</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5875203974103785</v>
+        <v>0.5727370511784378</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
